--- a/medicine/Enfance/Fabio_Fabbi/Fabio_Fabbi.xlsx
+++ b/medicine/Enfance/Fabio_Fabbi/Fabio_Fabbi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabio Fabbi, né à Bologne le 18 juillet 1861, mort à Casalecchio di Reno le 24 septembre 1946, est un peintre italien.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fabio Fabbi a été élève (peinture et sculpture) à l'Académie des beaux-arts de Florence, où il sera nommé professeur en 1893. Il se spécialise dans la peinture orientaliste[1].
-Il expose à la Società promotrice di belle arti de Turin, au Mostre di belle arti de Milan… Il est nommé Cavaliere della corone d'Italia en 1898[2].
-Il a peint un Sacro Cuore pour l'église di Sant'Antonio Abate de Bologne en 1902[3].
-Il a réalisé les médailles commémorant le sixième centenaire de la naissance de Pétrarque en 1904[4]. 
-Il meurt le 24 septembre 1946 à Casalecchio di Reno[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabio Fabbi a été élève (peinture et sculpture) à l'Académie des beaux-arts de Florence, où il sera nommé professeur en 1893. Il se spécialise dans la peinture orientaliste.
+Il expose à la Società promotrice di belle arti de Turin, au Mostre di belle arti de Milan… Il est nommé Cavaliere della corone d'Italia en 1898.
+Il a peint un Sacro Cuore pour l'église di Sant'Antonio Abate de Bologne en 1902.
+Il a réalisé les médailles commémorant le sixième centenaire de la naissance de Pétrarque en 1904. 
+Il meurt le 24 septembre 1946 à Casalecchio di Reno.
 </t>
         </is>
       </c>
@@ -546,14 +560,16 @@
           <t>Peintre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Morte de Anita [Garibaldi], huile sur toile, 1915-1920, Museo del Risorgimento, Florence[6]
-Marché aux esclaves, huile sur toile, 209x99cm[1]
-Au harem, huile sur toile, 72x110cm[2]
-Danseuse, huile sur toile, 170x100cm[7]
-La Danse, huile sur toile, 46x65cm[8]
-Venditore ambulante di tappeti, huile sur toile, 70x50cm, galleria Parronchi, Florence[9]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Morte de Anita [Garibaldi], huile sur toile, 1915-1920, Museo del Risorgimento, Florence
+Marché aux esclaves, huile sur toile, 209x99cm
+Au harem, huile sur toile, 72x110cm
+Danseuse, huile sur toile, 170x100cm
+La Danse, huile sur toile, 46x65cm
+Venditore ambulante di tappeti, huile sur toile, 70x50cm, galleria Parronchi, Florence</t>
         </is>
       </c>
     </row>
@@ -581,7 +597,9 @@
           <t>Illustrateur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Virgilio, L'Eneide (Le avventure di Enea), traduzione di Annibal Caro e volgarizzamento in prosa moderna del Prof. I. M. Palmarini, illustrazioni di F. Fabbi, Nerbini G., Firenze, 1929
 Emilio Salgari, Lo schiavo del Madagascar, romanzo postumo, tratto da trama lasciata dall'autore e pubblicato a cura di Nadir Salgari, con 8 tavole fuori testo di F. Fabbi, Firenze, Marzocco, 1954
@@ -624,7 +642,9 @@
           <t>Auteur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il cristianesimo. Rivelazione divina, Edizioni Pro Civitate Christiana Assisi, 1949</t>
         </is>
